--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B30CF-C67A-40F7-AF2A-D772F09FC831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4308E6-8D11-4710-9455-05C1DBC73E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="5292" yWindow="2940" windowWidth="16584" windowHeight="9420" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>MAT</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>Kollektivet</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Gjennomsnitt</t>
-  </si>
-  <si>
-    <t>Løpende sum</t>
-  </si>
-  <si>
-    <t>Antall</t>
   </si>
 </sst>
 </file>
@@ -627,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1170,9 @@
       <c r="E29" s="11">
         <v>8421.74</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12">
+        <v>151.72999999999999</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1453,7 +1443,7 @@
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>0</v>
+        <v>151.72999999999999</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
@@ -1485,11 +1475,11 @@
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>0</v>
+        <v>151.72999999999999</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49)</f>
-        <v>8421.74</v>
+        <v>8270.01</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4308E6-8D11-4710-9455-05C1DBC73E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474448F3-9361-487F-8C3E-C5F1ACC6F706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="2940" windowWidth="16584" windowHeight="9420" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1176,9 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12">
+        <v>470</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -1459,7 +1461,7 @@
       </c>
       <c r="J49" s="17">
         <f t="shared" ref="J49" si="4">SUM(J29:J48)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="K49" s="17">
         <f t="shared" ref="K49" si="5">SUM(K29:K48)</f>
@@ -1475,11 +1477,11 @@
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>151.72999999999999</v>
+        <v>621.73</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49)</f>
-        <v>8270.01</v>
+        <v>7800.01</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474448F3-9361-487F-8C3E-C5F1ACC6F706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130454D-CF07-45C2-8ECA-6141BBB7C98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="1284" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,37 +1173,60 @@
       <c r="F29" s="12">
         <v>151.72999999999999</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="G29" s="12">
+        <v>155.6</v>
+      </c>
+      <c r="H29" s="12">
+        <v>91.9</v>
+      </c>
+      <c r="I29" s="15">
+        <v>155</v>
+      </c>
       <c r="J29" s="12">
         <v>470</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="15">
+        <v>25</v>
+      </c>
       <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="M29" s="15">
+        <v>3</v>
+      </c>
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="12">
+        <v>-4684.22</v>
+      </c>
+      <c r="F30" s="12">
+        <f>SUM(120.3-91.9)</f>
+        <v>28.399999999999991</v>
+      </c>
+      <c r="G30" s="13">
+        <v>30</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="12">
+        <v>276</v>
+      </c>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="18"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="12">
+        <v>70</v>
+      </c>
+      <c r="G31" s="12">
+        <v>149.4</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -1216,8 +1239,12 @@
       <c r="C32" s="1"/>
       <c r="D32" s="18"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="12">
+        <v>117.8</v>
+      </c>
+      <c r="G32" s="15">
+        <v>104</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -1230,7 +1257,9 @@
       <c r="C33" s="1"/>
       <c r="D33" s="18"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="15">
+        <v>481.8</v>
+      </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1243,7 +1272,9 @@
     <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D34" s="18"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="15">
+        <v>53.5</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1256,7 +1287,9 @@
     <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D35" s="18"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="15">
+        <v>39.9</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1269,7 +1302,9 @@
     <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D36" s="18"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="15">
+        <v>151.72999999999999</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1441,23 +1476,23 @@
       </c>
       <c r="E49" s="16">
         <f>SUM(E29:E46)</f>
-        <v>8421.74</v>
+        <v>3737.5199999999995</v>
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>151.72999999999999</v>
+        <v>1094.8599999999999</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" ref="H49" si="2">SUM(H29:H48)</f>
-        <v>0</v>
+        <v>91.9</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" ref="I49" si="3">SUM(I29:I48)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J49" s="17">
         <f t="shared" ref="J49" si="4">SUM(J29:J48)</f>
@@ -1465,7 +1500,7 @@
       </c>
       <c r="K49" s="17">
         <f t="shared" ref="K49" si="5">SUM(K29:K48)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L49" s="17">
         <f t="shared" ref="L49" si="6">SUM(L29:L48)</f>
@@ -1473,15 +1508,15 @@
       </c>
       <c r="M49" s="17">
         <f t="shared" ref="M49" si="7">SUM(M29:M48)</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>621.73</v>
+        <v>2554.7600000000002</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49)</f>
-        <v>7800.01</v>
+        <v>1182.7599999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130454D-CF07-45C2-8ECA-6141BBB7C98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1665805-0BF0-45A7-A3DC-33BDBE111AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="1632" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,9 +1207,13 @@
       <c r="G30" s="13">
         <v>30</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="12">
+        <v>94.9</v>
+      </c>
       <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="12">
+        <v>40</v>
+      </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12">
@@ -1220,16 +1224,22 @@
     <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>697</v>
+      </c>
       <c r="F31" s="12">
         <v>70</v>
       </c>
       <c r="G31" s="12">
         <v>149.4</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="15">
+        <v>91.9</v>
+      </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="15">
+        <v>415.42</v>
+      </c>
       <c r="K31" s="15"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -1247,7 +1257,9 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="J32" s="15">
+        <v>474.9</v>
+      </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -1260,10 +1272,14 @@
       <c r="F33" s="15">
         <v>481.8</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="15">
+        <v>175.8</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="J33" s="15">
+        <v>40</v>
+      </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -1275,7 +1291,9 @@
       <c r="F34" s="15">
         <v>53.5</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="15">
+        <v>150</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -1290,7 +1308,9 @@
       <c r="F35" s="15">
         <v>39.9</v>
       </c>
-      <c r="G35" s="12"/>
+      <c r="G35" s="15">
+        <v>154</v>
+      </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -1305,7 +1325,9 @@
       <c r="F36" s="15">
         <v>151.72999999999999</v>
       </c>
-      <c r="G36" s="12"/>
+      <c r="G36" s="15">
+        <v>75</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -1317,8 +1339,12 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="15">
+        <v>20</v>
+      </c>
+      <c r="G37" s="15">
+        <v>-30</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -1330,8 +1356,12 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D38" s="18"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="F38" s="15">
+        <v>75</v>
+      </c>
+      <c r="G38" s="15">
+        <v>155.6</v>
+      </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -1343,8 +1373,12 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D39" s="18"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="15">
+        <v>80</v>
+      </c>
+      <c r="G39" s="15">
+        <v>30</v>
+      </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -1356,8 +1390,12 @@
     <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D40" s="19"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="F40" s="15">
+        <v>58.8</v>
+      </c>
+      <c r="G40" s="15">
+        <v>149.4</v>
+      </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -1369,8 +1407,13 @@
     <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D41" s="19"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="F41" s="12">
+        <f>SUM(403.3-150-94.9)</f>
+        <v>158.4</v>
+      </c>
+      <c r="G41" s="15">
+        <v>70</v>
+      </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -1382,7 +1425,10 @@
     <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D42" s="19"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12">
+        <f>SUM(148-59)</f>
+        <v>89</v>
+      </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -1395,7 +1441,10 @@
     <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D43" s="19"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="15">
+        <f>SUM(120.3-91.9)</f>
+        <v>28.399999999999991</v>
+      </c>
       <c r="G43" s="12"/>
       <c r="H43" s="14"/>
       <c r="I43" s="12"/>
@@ -1408,7 +1457,7 @@
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1476,19 +1525,19 @@
       </c>
       <c r="E49" s="16">
         <f>SUM(E29:E46)</f>
-        <v>3737.5199999999995</v>
+        <v>4434.5199999999995</v>
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>1094.8599999999999</v>
+        <v>1604.46</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
-        <v>439</v>
+        <v>1368.8</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" ref="H49" si="2">SUM(H29:H48)</f>
-        <v>91.9</v>
+        <v>278.70000000000005</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" ref="I49" si="3">SUM(I29:I48)</f>
@@ -1496,7 +1545,7 @@
       </c>
       <c r="J49" s="17">
         <f t="shared" ref="J49" si="4">SUM(J29:J48)</f>
-        <v>470</v>
+        <v>1440.3200000000002</v>
       </c>
       <c r="K49" s="17">
         <f t="shared" ref="K49" si="5">SUM(K29:K48)</f>
@@ -1512,11 +1561,11 @@
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>2554.7600000000002</v>
+        <v>5151.2800000000007</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49)</f>
-        <v>1182.7599999999993</v>
+        <v>-716.76000000000113</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1665805-0BF0-45A7-A3DC-33BDBE111AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03880E70-5008-4CD0-9DC2-5B31F0ECF233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1429,10 @@
         <f>SUM(148-59)</f>
         <v>89</v>
       </c>
-      <c r="G42" s="12"/>
+      <c r="G42" s="12">
+        <f>SUM(-81-46)</f>
+        <v>-127</v>
+      </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -1457,7 +1460,10 @@
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="15"/>
+      <c r="F44" s="15">
+        <f>SUM(-11+81+46)</f>
+        <v>116</v>
+      </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1529,11 +1535,11 @@
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>1604.46</v>
+        <v>1720.46</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
-        <v>1368.8</v>
+        <v>1241.8</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" ref="H49" si="2">SUM(H29:H48)</f>
@@ -1561,11 +1567,11 @@
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>5151.2800000000007</v>
+        <v>5140.2800000000007</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49)</f>
-        <v>-716.76000000000113</v>
+        <v>-705.76000000000113</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03880E70-5008-4CD0-9DC2-5B31F0ECF233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91937C1-523B-44C4-98BA-7D083475A130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="1980" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>ØL</t>
   </si>
   <si>
-    <t>SNUS</t>
-  </si>
-  <si>
     <t>LEK</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Kollektivet</t>
+  </si>
+  <si>
+    <t>SN</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
@@ -648,22 +648,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="N3" s="24"/>
     </row>
@@ -976,7 +976,7 @@
         <v>-25</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1063,7 +1063,7 @@
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="16">
         <f>SUM(E4:E21)</f>
@@ -1136,7 +1136,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="18"/>
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>0</v>
@@ -1145,22 +1145,22 @@
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="J28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="N28" s="24"/>
     </row>
@@ -1242,20 +1242,27 @@
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <v>80</v>
+      </c>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="15">
+        <v>950</v>
+      </c>
       <c r="F32" s="12">
         <v>117.8</v>
       </c>
       <c r="G32" s="15">
         <v>104</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12">
+        <f>SUM(241.5-149.4)</f>
+        <v>92.1</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="15">
         <v>474.9</v>
@@ -1296,7 +1303,9 @@
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="J34" s="15">
+        <v>207</v>
+      </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -1313,7 +1322,9 @@
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="J35" s="15">
+        <v>40</v>
+      </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -1330,7 +1341,9 @@
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="15">
+        <v>600</v>
+      </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
@@ -1347,7 +1360,9 @@
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="J37" s="15">
+        <v>-600</v>
+      </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
@@ -1448,7 +1463,9 @@
         <f>SUM(120.3-91.9)</f>
         <v>28.399999999999991</v>
       </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="15">
+        <v>149.4</v>
+      </c>
       <c r="H43" s="14"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -1476,7 +1493,9 @@
     <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D45" s="19"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12">
+        <v>58.9</v>
+      </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -1489,7 +1508,9 @@
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D46" s="19"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12">
+        <v>66.099999999999994</v>
+      </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1502,7 +1523,9 @@
     <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="12">
+        <v>108.4</v>
+      </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1527,23 +1550,23 @@
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="16">
         <f>SUM(E29:E46)</f>
-        <v>4434.5199999999995</v>
+        <v>5384.5199999999995</v>
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>1720.46</v>
+        <v>1953.8600000000001</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
-        <v>1241.8</v>
+        <v>1391.2</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" ref="H49" si="2">SUM(H29:H48)</f>
-        <v>278.70000000000005</v>
+        <v>370.80000000000007</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" ref="I49" si="3">SUM(I29:I48)</f>
@@ -1551,7 +1574,7 @@
       </c>
       <c r="J49" s="17">
         <f t="shared" ref="J49" si="4">SUM(J29:J48)</f>
-        <v>1440.3200000000002</v>
+        <v>1687.3200000000002</v>
       </c>
       <c r="K49" s="17">
         <f t="shared" ref="K49" si="5">SUM(K29:K48)</f>
@@ -1563,15 +1586,15 @@
       </c>
       <c r="M49" s="17">
         <f t="shared" ref="M49" si="7">SUM(M29:M48)</f>
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>5140.2800000000007</v>
+        <v>5942.18</v>
       </c>
       <c r="O49" s="27">
-        <f>SUM(E49-N49)</f>
-        <v>-705.76000000000113</v>
+        <f>SUM(E49-N49+1500)</f>
+        <v>942.33999999999924</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91937C1-523B-44C4-98BA-7D083475A130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD257064-01A2-41E3-981D-0958ACB630A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>MAT</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,17 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
-  <dimension ref="C2:O49"/>
+  <dimension ref="C2:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:14">
       <c r="D2" s="21">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -636,7 +636,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:14">
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:14">
       <c r="D4" s="18"/>
       <c r="E4" s="11">
         <v>22458</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:14">
       <c r="D5" s="18"/>
       <c r="E5" s="12">
         <v>1000</v>
@@ -728,7 +728,7 @@
       <c r="L5" s="12"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:14">
       <c r="D6" s="18"/>
       <c r="E6" s="12">
         <v>-150</v>
@@ -755,7 +755,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:14">
       <c r="D7" s="18"/>
       <c r="E7" s="15">
         <v>950</v>
@@ -776,7 +776,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:14">
       <c r="D8" s="18"/>
       <c r="E8" s="15">
         <v>950</v>
@@ -797,7 +797,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:14">
       <c r="D9" s="18"/>
       <c r="E9" s="11">
         <v>-4468.03</v>
@@ -817,7 +817,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:14">
       <c r="D10" s="18"/>
       <c r="E10" s="11">
         <v>-4468.03</v>
@@ -838,9 +838,11 @@
       <c r="M10" s="12"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:14">
       <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="15">
+        <v>-149</v>
+      </c>
       <c r="F11" s="12">
         <v>28.9</v>
       </c>
@@ -856,7 +858,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:14">
       <c r="D12" s="18"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12">
@@ -874,7 +876,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:14">
       <c r="D13" s="18"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12">
@@ -893,7 +895,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:14">
       <c r="D14" s="18"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
@@ -911,7 +913,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:14">
       <c r="D15" s="19"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12">
@@ -929,7 +931,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:14">
       <c r="D16" s="19"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12">
@@ -947,7 +949,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15">
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
@@ -966,7 +968,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15">
       <c r="D18" s="19"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12">
@@ -985,7 +987,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15">
       <c r="D19" s="19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12">
@@ -1002,7 +1004,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15">
       <c r="D20" s="19"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12">
@@ -1019,7 +1021,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15">
       <c r="D21" s="19"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12">
@@ -1034,7 +1036,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15">
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1047,7 +1049,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15">
       <c r="D23" s="20"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1060,14 +1062,14 @@
       <c r="M23" s="12"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15">
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="16">
         <f>SUM(E4:E21)</f>
-        <v>16271.940000000002</v>
+        <v>16122.940000000002</v>
       </c>
       <c r="F24" s="17">
         <f>SUM(F4:F23)</f>
@@ -1107,19 +1109,19 @@
       </c>
       <c r="O24" s="27">
         <f>SUM(E24-N24)</f>
-        <v>10547.493500000002</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+        <v>10398.493500000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15">
       <c r="C27" s="1"/>
       <c r="D27" s="21">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -1132,7 +1134,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15">
       <c r="C28" s="1"/>
       <c r="D28" s="18"/>
       <c r="E28" s="2" t="s">
@@ -1164,7 +1166,7 @@
       </c>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15">
       <c r="C29" s="1"/>
       <c r="D29" s="18"/>
       <c r="E29" s="11">
@@ -1194,7 +1196,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15">
       <c r="C30" s="1"/>
       <c r="D30" s="18"/>
       <c r="E30" s="12">
@@ -1221,7 +1223,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15">
       <c r="C31" s="1"/>
       <c r="D31" s="18"/>
       <c r="E31" s="12">
@@ -1247,7 +1249,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15">
       <c r="C32" s="1"/>
       <c r="D32" s="18"/>
       <c r="E32" s="15">
@@ -1272,10 +1274,12 @@
       <c r="M32" s="12"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14">
       <c r="C33" s="1"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="15">
+        <v>150</v>
+      </c>
       <c r="F33" s="15">
         <v>481.8</v>
       </c>
@@ -1292,9 +1296,11 @@
       <c r="M33" s="12"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14">
       <c r="D34" s="18"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="15">
+        <v>-149</v>
+      </c>
       <c r="F34" s="15">
         <v>53.5</v>
       </c>
@@ -1311,7 +1317,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14">
       <c r="D35" s="18"/>
       <c r="E35" s="12"/>
       <c r="F35" s="15">
@@ -1330,7 +1336,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14">
       <c r="D36" s="18"/>
       <c r="E36" s="12"/>
       <c r="F36" s="15">
@@ -1349,7 +1355,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14">
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
       <c r="F37" s="15">
@@ -1368,7 +1374,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14">
       <c r="D38" s="18"/>
       <c r="E38" s="12"/>
       <c r="F38" s="15">
@@ -1379,13 +1385,15 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="15">
+        <v>40</v>
+      </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14">
       <c r="D39" s="18"/>
       <c r="E39" s="12"/>
       <c r="F39" s="15">
@@ -1396,13 +1404,15 @@
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="15">
+        <v>207</v>
+      </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14">
       <c r="D40" s="19"/>
       <c r="E40" s="12"/>
       <c r="F40" s="15">
@@ -1419,7 +1429,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14">
       <c r="D41" s="19"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12">
@@ -1437,7 +1447,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:14">
       <c r="D42" s="19"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12">
@@ -1456,7 +1466,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:14">
       <c r="D43" s="19"/>
       <c r="E43" s="12"/>
       <c r="F43" s="15">
@@ -1474,14 +1484,16 @@
       <c r="M43" s="12"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:14">
       <c r="D44" s="19"/>
       <c r="E44" s="12"/>
       <c r="F44" s="15">
         <f>SUM(-11+81+46)</f>
         <v>116</v>
       </c>
-      <c r="G44" s="12"/>
+      <c r="G44" s="15">
+        <v>60</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -1490,7 +1502,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:14">
       <c r="D45" s="19"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12">
@@ -1505,11 +1517,12 @@
       <c r="M45" s="12"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:14">
       <c r="D46" s="19"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12">
-        <v>66.099999999999994</v>
+        <f>SUM(66.1+38.9)</f>
+        <v>105</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -1520,7 +1533,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:14">
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12">
@@ -1535,10 +1548,10 @@
       <c r="M47" s="12"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:14">
       <c r="D48" s="20"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -1548,21 +1561,21 @@
       <c r="M48" s="12"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:15">
       <c r="D49" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="16">
         <f>SUM(E29:E46)</f>
-        <v>5384.5199999999995</v>
+        <v>5385.5199999999995</v>
       </c>
       <c r="F49" s="17">
         <f>SUM(F29:F48)</f>
-        <v>1953.8600000000001</v>
+        <v>1992.7600000000002</v>
       </c>
       <c r="G49" s="17">
         <f t="shared" ref="G49" si="1">SUM(G29:G48)</f>
-        <v>1391.2</v>
+        <v>1451.2</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" ref="H49" si="2">SUM(H29:H48)</f>
@@ -1574,7 +1587,7 @@
       </c>
       <c r="J49" s="17">
         <f t="shared" ref="J49" si="4">SUM(J29:J48)</f>
-        <v>1687.3200000000002</v>
+        <v>1934.3200000000002</v>
       </c>
       <c r="K49" s="17">
         <f t="shared" ref="K49" si="5">SUM(K29:K48)</f>
@@ -1590,11 +1603,371 @@
       </c>
       <c r="N49" s="25">
         <f>SUM(F49:M49)</f>
-        <v>5942.18</v>
+        <v>6288.08</v>
       </c>
       <c r="O49" s="27">
         <f>SUM(E49-N49+1500)</f>
-        <v>942.33999999999924</v>
+        <v>597.4399999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15">
+      <c r="D54" s="21">
+        <v>44105</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="4:15">
+      <c r="D55" s="18"/>
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="24"/>
+    </row>
+    <row r="56" spans="4:15">
+      <c r="D56" s="18"/>
+      <c r="E56" s="11">
+        <v>8421.74</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="18"/>
+    </row>
+    <row r="57" spans="4:15">
+      <c r="D57" s="18"/>
+      <c r="E57" s="12">
+        <v>-4684.22</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="18"/>
+    </row>
+    <row r="58" spans="4:15">
+      <c r="D58" s="18"/>
+      <c r="E58" s="15">
+        <v>-149</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="18"/>
+    </row>
+    <row r="59" spans="4:15">
+      <c r="D59" s="18"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="4:15">
+      <c r="D60" s="18"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="18"/>
+    </row>
+    <row r="61" spans="4:15">
+      <c r="D61" s="18"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="18"/>
+    </row>
+    <row r="62" spans="4:15">
+      <c r="D62" s="18"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="18"/>
+    </row>
+    <row r="63" spans="4:15">
+      <c r="D63" s="18"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="18"/>
+    </row>
+    <row r="64" spans="4:15">
+      <c r="D64" s="18"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="18"/>
+    </row>
+    <row r="65" spans="4:15">
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="18"/>
+    </row>
+    <row r="66" spans="4:15">
+      <c r="D66" s="18"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="18"/>
+    </row>
+    <row r="67" spans="4:15">
+      <c r="D67" s="19"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="18"/>
+    </row>
+    <row r="68" spans="4:15">
+      <c r="D68" s="19"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="18"/>
+    </row>
+    <row r="69" spans="4:15">
+      <c r="D69" s="19"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="18"/>
+    </row>
+    <row r="70" spans="4:15">
+      <c r="D70" s="19"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="18"/>
+    </row>
+    <row r="71" spans="4:15">
+      <c r="D71" s="19"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="18"/>
+    </row>
+    <row r="72" spans="4:15">
+      <c r="D72" s="19"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="18"/>
+    </row>
+    <row r="73" spans="4:15">
+      <c r="D73" s="19"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="24"/>
+    </row>
+    <row r="74" spans="4:15">
+      <c r="D74" s="18"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="18"/>
+    </row>
+    <row r="75" spans="4:15">
+      <c r="D75" s="20"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76" spans="4:15">
+      <c r="D76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="16">
+        <f>SUM(E56:E73)</f>
+        <v>3588.5199999999995</v>
+      </c>
+      <c r="F76" s="17">
+        <f>SUM(F56:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" ref="G76:M76" si="8">SUM(G56:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="25">
+        <f>SUM(F76:M76)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="27">
+        <f>SUM(E76-N76+1500)</f>
+        <v>5088.5199999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD257064-01A2-41E3-981D-0958ACB630A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F351E-81F6-4C86-A88A-7F69C5CFCB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,13 +615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="97" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D2" s="21">
         <v>44044</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="4:14">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" s="18"/>
       <c r="E4" s="11">
         <v>22458</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" s="18"/>
       <c r="E5" s="12">
         <v>1000</v>
@@ -728,7 +728,7 @@
       <c r="L5" s="12"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D6" s="18"/>
       <c r="E6" s="12">
         <v>-150</v>
@@ -755,7 +755,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D7" s="18"/>
       <c r="E7" s="15">
         <v>950</v>
@@ -776,7 +776,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" s="18"/>
       <c r="E8" s="15">
         <v>950</v>
@@ -797,7 +797,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" s="18"/>
       <c r="E9" s="11">
         <v>-4468.03</v>
@@ -817,7 +817,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" s="18"/>
       <c r="E10" s="11">
         <v>-4468.03</v>
@@ -838,7 +838,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D11" s="18"/>
       <c r="E11" s="15">
         <v>-149</v>
@@ -858,7 +858,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" s="18"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12">
@@ -876,7 +876,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D13" s="18"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12">
@@ -895,7 +895,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D14" s="18"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
@@ -913,7 +913,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" s="19"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12">
@@ -931,7 +931,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12">
@@ -949,7 +949,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
@@ -968,7 +968,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D18" s="19"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12">
@@ -987,7 +987,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D19" s="19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12">
@@ -1004,7 +1004,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D20" s="19"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12">
@@ -1021,7 +1021,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D21" s="19"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12">
@@ -1036,7 +1036,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1049,7 +1049,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D23" s="20"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1062,7 +1062,7 @@
       <c r="M23" s="12"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
         <v>4</v>
@@ -1112,13 +1112,13 @@
         <v>10398.493500000002</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="21">
         <v>44075</v>
@@ -1134,7 +1134,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="18"/>
       <c r="E28" s="2" t="s">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="18"/>
       <c r="E29" s="11">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="18"/>
       <c r="E30" s="12">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="18"/>
       <c r="E31" s="12">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="18"/>
       <c r="E32" s="15">
@@ -1274,7 +1274,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="18"/>
       <c r="E33" s="15">
@@ -1296,7 +1296,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D34" s="18"/>
       <c r="E34" s="15">
         <v>-149</v>
@@ -1317,7 +1317,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D35" s="18"/>
       <c r="E35" s="12"/>
       <c r="F35" s="15">
@@ -1336,7 +1336,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D36" s="18"/>
       <c r="E36" s="12"/>
       <c r="F36" s="15">
@@ -1355,7 +1355,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
       <c r="F37" s="15">
@@ -1374,7 +1374,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D38" s="18"/>
       <c r="E38" s="12"/>
       <c r="F38" s="15">
@@ -1393,7 +1393,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D39" s="18"/>
       <c r="E39" s="12"/>
       <c r="F39" s="15">
@@ -1412,7 +1412,7 @@
       <c r="M39" s="12"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D40" s="19"/>
       <c r="E40" s="12"/>
       <c r="F40" s="15">
@@ -1429,7 +1429,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D41" s="19"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12">
@@ -1447,7 +1447,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D42" s="19"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12">
@@ -1466,7 +1466,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D43" s="19"/>
       <c r="E43" s="12"/>
       <c r="F43" s="15">
@@ -1484,7 +1484,7 @@
       <c r="M43" s="12"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
       <c r="E44" s="12"/>
       <c r="F44" s="15">
@@ -1502,7 +1502,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D45" s="19"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12">
@@ -1517,7 +1517,7 @@
       <c r="M45" s="12"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D46" s="19"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12">
@@ -1533,7 +1533,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D47" s="18"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12">
@@ -1548,7 +1548,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D48" s="20"/>
       <c r="E48" s="12"/>
       <c r="F48" s="15"/>
@@ -1561,7 +1561,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="4:15">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="26" t="s">
         <v>4</v>
       </c>
@@ -1606,11 +1606,11 @@
         <v>6288.08</v>
       </c>
       <c r="O49" s="27">
-        <f>SUM(E49-N49+1500)</f>
-        <v>597.4399999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="4:15">
+        <f>SUM(E49-N49)</f>
+        <v>-902.5600000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54" s="21">
         <v>44105</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="M54" s="22"/>
       <c r="N54" s="23"/>
     </row>
-    <row r="55" spans="4:15">
+    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55" s="18"/>
       <c r="E55" s="2" t="s">
         <v>3</v>
@@ -1656,80 +1656,116 @@
       </c>
       <c r="N55" s="24"/>
     </row>
-    <row r="56" spans="4:15">
+    <row r="56" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D56" s="18"/>
       <c r="E56" s="11">
         <v>8421.74</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="12">
+        <v>70.8</v>
+      </c>
+      <c r="G56" s="12">
+        <v>209.8</v>
+      </c>
       <c r="H56" s="12"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="12"/>
+      <c r="I56" s="15">
+        <v>129</v>
+      </c>
+      <c r="J56" s="15">
+        <v>24</v>
+      </c>
       <c r="K56" s="15"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="15"/>
+      <c r="L56" s="12">
+        <v>99.5</v>
+      </c>
+      <c r="M56" s="15">
+        <v>149</v>
+      </c>
       <c r="N56" s="18"/>
     </row>
-    <row r="57" spans="4:15">
+    <row r="57" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D57" s="18"/>
       <c r="E57" s="12">
         <v>-4684.22</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="12">
+        <v>222.08</v>
+      </c>
       <c r="G57" s="13"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="I57" s="12">
+        <v>51.9</v>
+      </c>
+      <c r="J57" s="15">
+        <v>50</v>
+      </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="4:15">
+    <row r="58" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D58" s="18"/>
       <c r="E58" s="15">
         <v>-149</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="12">
+        <v>52.8</v>
+      </c>
       <c r="G58" s="12"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="15"/>
+      <c r="I58" s="12">
+        <v>285</v>
+      </c>
+      <c r="J58" s="15">
+        <v>80</v>
+      </c>
       <c r="K58" s="15"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="18"/>
     </row>
-    <row r="59" spans="4:15">
+    <row r="59" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D59" s="18"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="12"/>
+      <c r="F59" s="15">
+        <v>114.14</v>
+      </c>
       <c r="G59" s="15"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="I59" s="15">
+        <v>629.1</v>
+      </c>
       <c r="J59" s="15"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="18"/>
     </row>
-    <row r="60" spans="4:15">
+    <row r="60" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D60" s="18"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="F60" s="12">
+        <f>SUM(108.41-10)</f>
+        <v>98.41</v>
+      </c>
       <c r="G60" s="15"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="I60" s="12">
+        <v>33.5</v>
+      </c>
       <c r="J60" s="15"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="18"/>
     </row>
-    <row r="61" spans="4:15">
+    <row r="61" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D61" s="18"/>
-      <c r="F61" s="15"/>
+      <c r="F61" s="15">
+        <f>SUM(666.01-300-20-99.5)</f>
+        <v>246.51</v>
+      </c>
       <c r="G61" s="15"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -1739,10 +1775,12 @@
       <c r="M61" s="12"/>
       <c r="N61" s="18"/>
     </row>
-    <row r="62" spans="4:15">
+    <row r="62" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D62" s="18"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="15"/>
+      <c r="F62" s="15">
+        <v>203.8</v>
+      </c>
       <c r="G62" s="15"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -1752,10 +1790,12 @@
       <c r="M62" s="12"/>
       <c r="N62" s="18"/>
     </row>
-    <row r="63" spans="4:15">
+    <row r="63" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D63" s="18"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="15"/>
+      <c r="F63" s="15">
+        <v>126.66</v>
+      </c>
       <c r="G63" s="15"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -1765,7 +1805,7 @@
       <c r="M63" s="12"/>
       <c r="N63" s="18"/>
     </row>
-    <row r="64" spans="4:15">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D64" s="18"/>
       <c r="E64" s="12"/>
       <c r="F64" s="15"/>
@@ -1778,7 +1818,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="4:15">
+    <row r="65" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D65" s="18"/>
       <c r="E65" s="12"/>
       <c r="F65" s="15"/>
@@ -1791,7 +1831,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="18"/>
     </row>
-    <row r="66" spans="4:15">
+    <row r="66" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D66" s="18"/>
       <c r="E66" s="12"/>
       <c r="F66" s="15"/>
@@ -1804,7 +1844,7 @@
       <c r="M66" s="12"/>
       <c r="N66" s="18"/>
     </row>
-    <row r="67" spans="4:15">
+    <row r="67" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D67" s="19"/>
       <c r="E67" s="12"/>
       <c r="F67" s="15"/>
@@ -1817,7 +1857,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="4:15">
+    <row r="68" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D68" s="19"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -1830,7 +1870,7 @@
       <c r="M68" s="12"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="4:15">
+    <row r="69" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D69" s="19"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -1843,7 +1883,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="18"/>
     </row>
-    <row r="70" spans="4:15">
+    <row r="70" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D70" s="19"/>
       <c r="E70" s="12"/>
       <c r="F70" s="15"/>
@@ -1856,7 +1896,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="18"/>
     </row>
-    <row r="71" spans="4:15">
+    <row r="71" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D71" s="19"/>
       <c r="E71" s="12"/>
       <c r="F71" s="15"/>
@@ -1869,7 +1909,7 @@
       <c r="M71" s="12"/>
       <c r="N71" s="18"/>
     </row>
-    <row r="72" spans="4:15">
+    <row r="72" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D72" s="19"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -1882,7 +1922,7 @@
       <c r="M72" s="12"/>
       <c r="N72" s="18"/>
     </row>
-    <row r="73" spans="4:15">
+    <row r="73" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D73" s="19"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -1895,7 +1935,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="24"/>
     </row>
-    <row r="74" spans="4:15">
+    <row r="74" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D74" s="18"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -1908,7 +1948,7 @@
       <c r="M74" s="12"/>
       <c r="N74" s="18"/>
     </row>
-    <row r="75" spans="4:15">
+    <row r="75" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D75" s="20"/>
       <c r="E75" s="12"/>
       <c r="F75" s="15"/>
@@ -1921,7 +1961,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="18"/>
     </row>
-    <row r="76" spans="4:15">
+    <row r="76" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D76" s="26" t="s">
         <v>4</v>
       </c>
@@ -1931,11 +1971,11 @@
       </c>
       <c r="F76" s="17">
         <f>SUM(F56:F75)</f>
-        <v>0</v>
+        <v>1135.2</v>
       </c>
       <c r="G76" s="17">
         <f t="shared" ref="G76:M76" si="8">SUM(G56:G75)</f>
-        <v>0</v>
+        <v>209.8</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="8"/>
@@ -1943,11 +1983,11 @@
       </c>
       <c r="I76" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1128.5</v>
       </c>
       <c r="J76" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="K76" s="17">
         <f t="shared" si="8"/>
@@ -1955,19 +1995,19 @@
       </c>
       <c r="L76" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="M76" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="N76" s="25">
         <f>SUM(F76:M76)</f>
-        <v>0</v>
+        <v>2876</v>
       </c>
       <c r="O76" s="27">
         <f>SUM(E76-N76+1500)</f>
-        <v>5088.5199999999995</v>
+        <v>2212.5199999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Div/Budsjett NTNU.xlsx
+++ b/Div/Budsjett NTNU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\NTNU\Div\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F351E-81F6-4C86-A88A-7F69C5CFCB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180BFBD1-4B48-40E9-8DF5-BEB3678E5AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34C11C1F-0EB1-470E-A4F1-B051E4076CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5D293-D798-4E89-948C-33848A824977}">
   <dimension ref="C2:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F54" zoomScale="97" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="97" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,7 +1691,9 @@
       <c r="F57" s="12">
         <v>222.08</v>
       </c>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13">
+        <v>150</v>
+      </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
         <v>51.9</v>
@@ -1712,7 +1714,9 @@
       <c r="F58" s="12">
         <v>52.8</v>
       </c>
-      <c r="G58" s="12"/>
+      <c r="G58" s="12">
+        <v>299</v>
+      </c>
       <c r="H58" s="15"/>
       <c r="I58" s="12">
         <v>285</v>
@@ -1808,7 +1812,9 @@
     <row r="64" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D64" s="18"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="15"/>
+      <c r="F64" s="15">
+        <v>142</v>
+      </c>
       <c r="G64" s="15"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -1971,11 +1977,11 @@
       </c>
       <c r="F76" s="17">
         <f>SUM(F56:F75)</f>
-        <v>1135.2</v>
+        <v>1277.2</v>
       </c>
       <c r="G76" s="17">
         <f t="shared" ref="G76:M76" si="8">SUM(G56:G75)</f>
-        <v>209.8</v>
+        <v>658.8</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="8"/>
@@ -2003,11 +2009,11 @@
       </c>
       <c r="N76" s="25">
         <f>SUM(F76:M76)</f>
-        <v>2876</v>
+        <v>3467</v>
       </c>
       <c r="O76" s="27">
         <f>SUM(E76-N76+1500)</f>
-        <v>2212.5199999999995</v>
+        <v>1621.5199999999995</v>
       </c>
     </row>
   </sheetData>
